--- a/HomeWorkBase2/HomeWorkBase2.xlsx
+++ b/HomeWorkBase2/HomeWorkBase2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\Учёба\Базы данных\HomeWorkBase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4AF6B-F62F-43E1-970B-FCE35FCC22AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157756A7-6656-4AAE-9A12-6F78ED1CEF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи на выборку данных" sheetId="1" r:id="rId1"/>
@@ -388,16 +388,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,13 +711,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11590,7 +11590,7 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -11607,12 +11607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
@@ -12127,25 +12127,25 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27394,11 +27394,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -27585,12 +27585,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -27645,12 +27645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -27690,16 +27690,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -27770,12 +27770,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="26"/>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
@@ -28276,13 +28276,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
